--- a/data/news_and_keyword/kosdaq/그린플러스.xlsx
+++ b/data/news_and_keyword/kosdaq/그린플러스.xlsx
@@ -1617,12 +1617,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>코스닥 상장 첫날 약세…공모가 웃돌아</t>
+          <t>상장 첫날 약세</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['코스닥', '상장', '첫날', '웃돌아']</t>
+          <t>['상장', '첫날', '약세']</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>상장 첫날 약세</t>
+          <t>코스닥 상장 첫날 약세…공모가 웃돌아</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['상장', '첫날', '약세']</t>
+          <t>['코스닥', '상장', '첫날', '웃돌아']</t>
         </is>
       </c>
       <c r="D47" t="n">
